--- a/dsa210.xlsx
+++ b/dsa210.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/DSA210-project-kaan-onal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F84FE-3856-D94C-A509-E09B51B9CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6958A1-8922-3945-A9AC-EC521A2CECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="800" windowWidth="28040" windowHeight="17440" xr2:uid="{C5B63019-2845-D349-9B5F-B2EF18368825}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{C5B63019-2845-D349-9B5F-B2EF18368825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="K2">
         <f>COUNT(E2:E91)</f>
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -661,19 +661,19 @@
       </c>
       <c r="G7">
         <f>AVERAGE(E2:E91)</f>
-        <v>311.72500000000002</v>
+        <v>317.46753246753246</v>
       </c>
       <c r="H7">
         <f>MEDIAN(E2:E91)</f>
-        <v>308.5</v>
+        <v>309</v>
       </c>
       <c r="I7">
         <f>_xlfn.VAR.P(E2:E91)</f>
-        <v>1068.2493750000001</v>
+        <v>1316.4567380671276</v>
       </c>
       <c r="J7">
         <f>STDEV(E2:E91)</f>
-        <v>33.100458978923342</v>
+        <v>36.520932863937354</v>
       </c>
       <c r="K7">
         <f>MODE(E2:E91)</f>
@@ -681,7 +681,7 @@
       </c>
       <c r="L7">
         <f>_xlfn.VAR.S(E2:E91)</f>
-        <v>1095.6403846153869</v>
+        <v>1333.7785372522194</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1341,9 +1341,18 @@
         <f t="shared" si="0"/>
         <v>23.04.2025 - 24.04.2025</v>
       </c>
+      <c r="B42" s="1">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.59375</v>
+      </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="E42">
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1351,9 +1360,18 @@
         <f t="shared" si="0"/>
         <v>24.04.2025 - 25.04.2025</v>
       </c>
+      <c r="B43" s="1">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="E43">
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1361,9 +1379,18 @@
         <f t="shared" si="0"/>
         <v>25.04.2025 - 26.04.2025</v>
       </c>
+      <c r="B44" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.375</v>
+      </c>
+      <c r="E44">
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1371,9 +1398,18 @@
         <f t="shared" si="0"/>
         <v>26.04.2025 - 27.04.2025</v>
       </c>
+      <c r="B45" s="1">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.375</v>
+      </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="E45">
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1381,9 +1417,18 @@
         <f t="shared" si="0"/>
         <v>27.04.2025 - 28.04.2025</v>
       </c>
+      <c r="B46" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.3888888888888889</v>
+      </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="E46">
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1391,9 +1436,18 @@
         <f t="shared" si="0"/>
         <v>28.04.2025 - 29.04.2025</v>
       </c>
+      <c r="B47" s="1">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.39583333333333337</v>
+      </c>
+      <c r="E47">
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1401,440 +1455,628 @@
         <f t="shared" si="0"/>
         <v>29.04.2025 - 30.04.2025</v>
       </c>
+      <c r="B48" s="1">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="E48">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>30.04.2025 - 01.05.2025</v>
       </c>
+      <c r="B49" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.375</v>
+      </c>
+      <c r="E49">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>01.05.2025 - 02.05.2025</v>
       </c>
+      <c r="B50" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="E50">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>02.05.2025 - 03.05.2025</v>
       </c>
+      <c r="B51" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.35763888888888895</v>
+      </c>
+      <c r="E51">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>03.05.2025 - 04.05.2025</v>
       </c>
+      <c r="B52" s="1">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E52">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>04.05.2025 - 05.05.2025</v>
       </c>
+      <c r="B53" s="1">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="D53" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.31597222222222227</v>
+      </c>
+      <c r="E53">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>05.05.2025 - 06.05.2025</v>
       </c>
+      <c r="B54" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="D54" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E54">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>06.05.2025 - 07.05.2025</v>
       </c>
+      <c r="B55" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D55" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E55">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>07.05.2025 - 08.05.2025</v>
       </c>
+      <c r="B56" s="1">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="D56" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.32986111111111116</v>
+      </c>
+      <c r="E56">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>08.05.2025 - 09.05.2025</v>
       </c>
+      <c r="B57" s="1">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.5625</v>
+      </c>
       <c r="D57" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E57">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>09.05.2025 - 10.05.2025</v>
       </c>
+      <c r="B58" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.35069444444444442</v>
+      </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.18402777777777776</v>
+      </c>
+      <c r="E58">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>10.05.2025 - 11.05.2025</v>
       </c>
+      <c r="B59" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="E59">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>11.05.2025 - 12.05.2025</v>
       </c>
+      <c r="B60" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="E60">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>12.05.2025 - 13.05.2025</v>
       </c>
+      <c r="B61" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="E61">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>13.05.2025 - 14.05.2025</v>
       </c>
+      <c r="B62" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.36111111111111116</v>
+      </c>
+      <c r="E62">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>14.05.2025 - 15.05.2025</v>
       </c>
+      <c r="B63" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E63">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>15.05.2025 - 16.05.2025</v>
       </c>
+      <c r="B64" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E64">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>16.05.2025 - 17.05.2025</v>
       </c>
+      <c r="B65" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="D65" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="E65">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>17.05.2025 - 18.05.2025</v>
       </c>
+      <c r="B66" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.5625</v>
+      </c>
       <c r="D66" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.36458333333333337</v>
+      </c>
+      <c r="E66">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>18.05.2025 - 19.05.2025</v>
       </c>
+      <c r="B67" s="1">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="D67" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.28819444444444442</v>
+      </c>
+      <c r="E67">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A91" si="2">TEXT(LEFT(A67,10)+1,"DD.MM.YYYY") &amp; " - " &amp; TEXT(RIGHT(A67,10)+1,"DD.MM.YYYY")</f>
+        <f t="shared" ref="A68:A78" si="2">TEXT(LEFT(A67,10)+1,"DD.MM.YYYY") &amp; " - " &amp; TEXT(RIGHT(A67,10)+1,"DD.MM.YYYY")</f>
         <v>19.05.2025 - 20.05.2025</v>
       </c>
+      <c r="B68" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:D91" si="3">C68-B68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D68:D78" si="3">C68-B68</f>
+        <v>0.32291666666666674</v>
+      </c>
+      <c r="E68">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>20.05.2025 - 21.05.2025</v>
       </c>
+      <c r="B69" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D69" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.31250000000000006</v>
+      </c>
+      <c r="E69">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>21.05.2025 - 22.05.2025</v>
       </c>
+      <c r="B70" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D70" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E70">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>22.05.2025 - 23.05.2025</v>
       </c>
+      <c r="B71" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.4375</v>
+      </c>
       <c r="D71" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E71">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>23.05.2025 - 24.05.2025</v>
       </c>
+      <c r="B72" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.5625</v>
+      </c>
       <c r="D72" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.375</v>
+      </c>
+      <c r="E72">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>24.05.2025 - 25.05.2025</v>
       </c>
+      <c r="B73" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="D73" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.22569444444444442</v>
+      </c>
+      <c r="E73">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>25.05.2025 - 26.05.2025</v>
       </c>
+      <c r="B74" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D74" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E74">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>26.05.2025 - 27.05.2025</v>
       </c>
+      <c r="B75" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D75" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.375</v>
+      </c>
+      <c r="E75">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>27.05.2025 - 28.05.2025</v>
       </c>
+      <c r="B76" s="1">
+        <v>0.15625</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.4375</v>
+      </c>
       <c r="D76" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.28125</v>
+      </c>
+      <c r="E76">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>28.05.2025 - 29.05.2025</v>
       </c>
+      <c r="B77" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.5625</v>
+      </c>
       <c r="D77" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.375</v>
+      </c>
+      <c r="E77">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>29.05.2025 - 30.05.2025</v>
       </c>
+      <c r="B78" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="D78" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <f t="shared" si="2"/>
-        <v>30.05.2025 - 31.05.2025</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
-        <f t="shared" si="2"/>
-        <v>31.05.2025 - 01.06.2025</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="str">
-        <f t="shared" si="2"/>
-        <v>01.06.2025 - 02.06.2025</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
-        <f t="shared" si="2"/>
-        <v>02.06.2025 - 03.06.2025</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="str">
-        <f t="shared" si="2"/>
-        <v>03.06.2025 - 04.06.2025</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="str">
-        <f t="shared" si="2"/>
-        <v>04.06.2025 - 05.06.2025</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="str">
-        <f t="shared" si="2"/>
-        <v>05.06.2025 - 06.06.2025</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <f t="shared" si="2"/>
-        <v>06.06.2025 - 07.06.2025</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <f t="shared" si="2"/>
-        <v>07.06.2025 - 08.06.2025</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="str">
-        <f t="shared" si="2"/>
-        <v>08.06.2025 - 09.06.2025</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="str">
-        <f t="shared" si="2"/>
-        <v>09.06.2025 - 10.06.2025</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f t="shared" si="2"/>
-        <v>10.06.2025 - 11.06.2025</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="str">
-        <f t="shared" si="2"/>
-        <v>11.06.2025 - 12.06.2025</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="E78">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
